--- a/biology/Zoologie/Charaxes_nitebis/Charaxes_nitebis.xlsx
+++ b/biology/Zoologie/Charaxes_nitebis/Charaxes_nitebis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases nitebis est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes nitebis a été nommé par William Chapman Hewitson en 1859 sous le nom initial de Nymphalis nitebis[1].
-Sous-espèces
-Charaxes nitebis nitebis
-Charaxes nitebis luscius Fruhstorfer, 1914
-Charaxes nitebis sulaensis Rothschild, 1900[1].
-Nom vernaculaire
-Charaxes nitebis se nomme Green Rajah en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes nitebis a été nommé par William Chapman Hewitson en 1859 sous le nom initial de Nymphalis nitebis.
 </t>
         </is>
       </c>
@@ -545,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charaxes nitebis est un grand papillon aux ailes antérieures à bord externe concave et aux ailes postérieures avec chacune une queue.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes nitebis nitebis
+Charaxes nitebis luscius Fruhstorfer, 1914
+Charaxes nitebis sulaensis Rothschild, 1900.</t>
         </is>
       </c>
     </row>
@@ -576,12 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes nitebis se nomme Green Rajah en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -606,15 +628,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes nitebis est un grand papillon aux ailes antérieures à bord externe concave et aux ailes postérieures avec chacune une queue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_nitebis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_nitebis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes nitebis est présent en Indonésie, au Sulawesi[1].
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes nitebis est présent en Indonésie, au Sulawesi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_nitebis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_nitebis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 Sur les autres projets Wikimedia :
 Charaxes nitebis, sur Wikimedia CommonsCharaxes nitebis, sur Wikispecies
 </t>
